--- a/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1024,8 +1044,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1033,11 +1053,14 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1125,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1138,16 +1165,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,16 +1215,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1293,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1332,8 +1372,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1353,8 +1393,11 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1392,16 +1435,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1543,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1533,16 +1585,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1580,16 +1635,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,25 +1693,28 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1677,13 +1738,16 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,8 +1893,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1862,16 +1935,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +1993,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1956,68 +2035,74 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2140,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2098,11 +2185,14 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2283,14 +2382,17 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2788,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2795,10 +2926,13 @@
         <v>0</v>
       </c>
       <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2824,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2842,10 +2976,13 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2862,7 +2999,7 @@
         <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -2871,7 +3008,7 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2889,10 +3026,13 @@
         <v>0</v>
       </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2909,7 +3049,7 @@
         <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
@@ -2924,7 +3064,7 @@
         <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
@@ -2936,10 +3076,13 @@
         <v>0</v>
       </c>
       <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3328,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3191,7 +3349,7 @@
         <v>200</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I66" s="3">
         <v>100</v>
@@ -3206,7 +3364,7 @@
         <v>100</v>
       </c>
       <c r="M66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
@@ -3218,10 +3376,13 @@
         <v>0</v>
       </c>
       <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,8 +3598,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3445,7 +3619,7 @@
         <v>-1300</v>
       </c>
       <c r="H72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="I72" s="3">
         <v>-1200</v>
@@ -3457,7 +3631,7 @@
         <v>-1200</v>
       </c>
       <c r="L72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="M72" s="3">
         <v>-1100</v>
@@ -3469,13 +3643,16 @@
         <v>-1100</v>
       </c>
       <c r="P72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,8 +3798,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3630,7 +3816,7 @@
         <v>-200</v>
       </c>
       <c r="G76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H76" s="3">
         <v>-100</v>
@@ -3645,7 +3831,7 @@
         <v>-100</v>
       </c>
       <c r="L76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M76" s="3">
         <v>0</v>
@@ -3660,10 +3846,13 @@
         <v>0</v>
       </c>
       <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +3898,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3800,16 +3995,19 @@
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4139,25 +4356,28 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4813,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4600,25 +4846,28 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4913,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>CIIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,85 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1047,8 +1066,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1056,11 +1075,14 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1168,16 +1194,19 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1218,16 +1247,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1296,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1346,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1375,8 +1414,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1396,8 +1435,11 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1438,16 +1480,19 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1588,16 +1639,19 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1638,16 +1692,19 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1741,13 +1801,16 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1896,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1938,16 +2010,19 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2038,71 +2116,77 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2188,11 +2274,14 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2385,14 +2483,17 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2541,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2929,10 +3059,13 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2961,13 +3094,13 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2979,10 +3112,13 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3002,7 +3138,7 @@
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -3011,7 +3147,7 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3029,10 +3165,13 @@
         <v>0</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3052,7 +3191,7 @@
         <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
@@ -3067,7 +3206,7 @@
         <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
@@ -3079,10 +3218,13 @@
         <v>0</v>
       </c>
       <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3352,7 +3509,7 @@
         <v>200</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
@@ -3367,7 +3524,7 @@
         <v>100</v>
       </c>
       <c r="N66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O66" s="3">
         <v>0</v>
@@ -3379,10 +3536,13 @@
         <v>0</v>
       </c>
       <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,13 +3771,16 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="E72" s="3">
         <v>-1300</v>
@@ -3622,7 +3795,7 @@
         <v>-1300</v>
       </c>
       <c r="I72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="J72" s="3">
         <v>-1200</v>
@@ -3634,7 +3807,7 @@
         <v>-1200</v>
       </c>
       <c r="M72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="N72" s="3">
         <v>-1100</v>
@@ -3646,13 +3819,16 @@
         <v>-1100</v>
       </c>
       <c r="Q72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R72" s="3">
         <v>-1000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3819,7 +4004,7 @@
         <v>-200</v>
       </c>
       <c r="H76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I76" s="3">
         <v>-100</v>
@@ -3834,7 +4019,7 @@
         <v>-100</v>
       </c>
       <c r="M76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N76" s="3">
         <v>0</v>
@@ -3849,10 +4034,13 @@
         <v>0</v>
       </c>
       <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3998,16 +4192,19 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4359,25 +4575,28 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4596,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4849,25 +5094,28 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4964,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>CIIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1069,8 +1089,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1078,11 +1098,14 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1197,16 +1224,19 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1250,16 +1280,19 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1417,8 +1457,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1483,16 +1526,19 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1642,16 +1694,19 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1695,16 +1750,19 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1804,13 +1865,16 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2013,16 +2086,19 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2119,74 +2198,80 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2277,11 +2364,14 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2486,14 +2585,17 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3062,10 +3193,13 @@
         <v>0</v>
       </c>
       <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3097,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3115,15 +3249,18 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
@@ -3141,7 +3278,7 @@
         <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -3150,7 +3287,7 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3168,15 +3305,18 @@
         <v>0</v>
       </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -3194,7 +3334,7 @@
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
@@ -3209,7 +3349,7 @@
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
@@ -3221,10 +3361,13 @@
         <v>0</v>
       </c>
       <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,13 +3643,16 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
@@ -3512,7 +3670,7 @@
         <v>200</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
@@ -3527,7 +3685,7 @@
         <v>100</v>
       </c>
       <c r="O66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P66" s="3">
         <v>0</v>
@@ -3539,10 +3697,13 @@
         <v>0</v>
       </c>
       <c r="S66" s="3">
+        <v>0</v>
+      </c>
+      <c r="T66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3783,7 +3957,7 @@
         <v>-1400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="F72" s="3">
         <v>-1300</v>
@@ -3798,7 +3972,7 @@
         <v>-1300</v>
       </c>
       <c r="J72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="K72" s="3">
         <v>-1200</v>
@@ -3810,7 +3984,7 @@
         <v>-1200</v>
       </c>
       <c r="N72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="O72" s="3">
         <v>-1100</v>
@@ -3822,13 +3996,16 @@
         <v>-1100</v>
       </c>
       <c r="R72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S72" s="3">
         <v>-1000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,13 +4169,16 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E76" s="3">
         <v>-200</v>
@@ -4007,7 +4193,7 @@
         <v>-200</v>
       </c>
       <c r="I76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J76" s="3">
         <v>-100</v>
@@ -4022,7 +4208,7 @@
         <v>-100</v>
       </c>
       <c r="N76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O76" s="3">
         <v>0</v>
@@ -4037,10 +4223,13 @@
         <v>0</v>
       </c>
       <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4195,16 +4390,19 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4578,25 +4795,28 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5097,25 +5343,28 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>CIIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,97 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +810,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +872,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +934,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1092,20 +1132,26 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1231,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1227,16 +1281,22 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1283,16 +1343,22 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1379,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1437,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1499,14 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1460,11 +1540,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
@@ -1481,8 +1561,14 @@
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1529,16 +1615,22 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1685,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1747,14 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1697,16 +1801,22 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1753,16 +1863,22 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1868,13 +1990,19 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2119,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,8 +2181,14 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2089,16 +2235,22 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>200</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2305,14 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2201,77 +2359,89 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>200</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2486,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2367,11 +2541,17 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2606,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2668,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2730,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2588,14 +2786,20 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2854,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2916,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2978,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3164,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3288,14 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3098,8 +3350,14 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3402,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3196,10 +3458,16 @@
         <v>0</v>
       </c>
       <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3234,17 +3502,17 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
@@ -3252,10 +3520,16 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3263,10 +3537,10 @@
         <v>300</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
@@ -3281,19 +3555,19 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3308,10 +3582,16 @@
         <v>0</v>
       </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3319,10 +3599,10 @@
         <v>300</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
@@ -3337,10 +3617,10 @@
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
@@ -3352,10 +3632,10 @@
         <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R60" s="3">
         <v>0</v>
@@ -3364,10 +3644,16 @@
         <v>0</v>
       </c>
       <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3708,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3956,14 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3655,10 +3971,10 @@
         <v>300</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
@@ -3673,10 +3989,10 @@
         <v>200</v>
       </c>
       <c r="K66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M66" s="3">
         <v>100</v>
@@ -3688,10 +4004,10 @@
         <v>100</v>
       </c>
       <c r="P66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R66" s="3">
         <v>0</v>
@@ -3700,10 +4016,16 @@
         <v>0</v>
       </c>
       <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+      <c r="V66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4290,14 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3960,10 +4308,10 @@
         <v>-1400</v>
       </c>
       <c r="F72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="G72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="H72" s="3">
         <v>-1300</v>
@@ -3975,10 +4323,10 @@
         <v>-1300</v>
       </c>
       <c r="K72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="L72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="M72" s="3">
         <v>-1200</v>
@@ -3987,10 +4335,10 @@
         <v>-1200</v>
       </c>
       <c r="O72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="P72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="Q72" s="3">
         <v>-1100</v>
@@ -3999,13 +4347,19 @@
         <v>-1100</v>
       </c>
       <c r="S72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="T72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="U72" s="3">
         <v>-1000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4538,14 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4181,10 +4553,10 @@
         <v>-300</v>
       </c>
       <c r="E76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G76" s="3">
         <v>-200</v>
@@ -4196,10 +4568,10 @@
         <v>-200</v>
       </c>
       <c r="J76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L76" s="3">
         <v>-100</v>
@@ -4211,10 +4583,10 @@
         <v>-100</v>
       </c>
       <c r="O76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q76" s="3">
         <v>0</v>
@@ -4226,10 +4598,16 @@
         <v>0</v>
       </c>
       <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4662,81 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4393,16 +4783,22 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>200</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4877,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5187,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4798,25 +5232,31 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5277,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5335,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5459,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5521,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5793,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5346,25 +5838,31 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5917,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5977,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>CIIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,100 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1138,8 +1157,8 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1147,11 +1166,14 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1287,16 +1313,19 @@
         <v>0</v>
       </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1349,16 +1378,19 @@
         <v>0</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1443,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1505,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1546,8 +1585,8 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
@@ -1567,8 +1606,11 @@
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1621,16 +1663,19 @@
         <v>0</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1807,16 +1858,19 @@
         <v>0</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1869,16 +1923,19 @@
         <v>0</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1996,13 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2187,8 +2256,11 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2241,16 +2313,19 @@
         <v>0</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2365,83 +2443,89 @@
         <v>0</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2547,11 +2633,14 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2674,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2792,14 +2890,17 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2860,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2984,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3356,8 +3481,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3464,10 +3594,13 @@
         <v>0</v>
       </c>
       <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3508,13 +3641,13 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3526,10 +3659,13 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3543,7 +3679,7 @@
         <v>300</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -3561,7 +3697,7 @@
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
@@ -3570,7 +3706,7 @@
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3588,10 +3724,13 @@
         <v>0</v>
       </c>
       <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3605,7 +3744,7 @@
         <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
@@ -3623,7 +3762,7 @@
         <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
@@ -3638,7 +3777,7 @@
         <v>100</v>
       </c>
       <c r="R60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S60" s="3">
         <v>0</v>
@@ -3650,10 +3789,13 @@
         <v>0</v>
       </c>
       <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,8 +4116,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3977,7 +4134,7 @@
         <v>300</v>
       </c>
       <c r="G66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
@@ -3995,7 +4152,7 @@
         <v>200</v>
       </c>
       <c r="M66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>100</v>
@@ -4010,7 +4167,7 @@
         <v>100</v>
       </c>
       <c r="R66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S66" s="3">
         <v>0</v>
@@ -4022,10 +4179,13 @@
         <v>0</v>
       </c>
       <c r="V66" s="3">
+        <v>0</v>
+      </c>
+      <c r="W66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,8 +4466,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4314,7 +4487,7 @@
         <v>-1400</v>
       </c>
       <c r="H72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="I72" s="3">
         <v>-1300</v>
@@ -4329,7 +4502,7 @@
         <v>-1300</v>
       </c>
       <c r="M72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="N72" s="3">
         <v>-1200</v>
@@ -4341,7 +4514,7 @@
         <v>-1200</v>
       </c>
       <c r="Q72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="R72" s="3">
         <v>-1100</v>
@@ -4353,13 +4526,16 @@
         <v>-1100</v>
       </c>
       <c r="U72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V72" s="3">
         <v>-1000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,8 +4726,11 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4559,7 +4744,7 @@
         <v>-300</v>
       </c>
       <c r="G76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H76" s="3">
         <v>-200</v>
@@ -4574,7 +4759,7 @@
         <v>-200</v>
       </c>
       <c r="L76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M76" s="3">
         <v>-100</v>
@@ -4589,7 +4774,7 @@
         <v>-100</v>
       </c>
       <c r="Q76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R76" s="3">
         <v>0</v>
@@ -4604,10 +4789,13 @@
         <v>0</v>
       </c>
       <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4789,16 +4983,19 @@
         <v>0</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5238,25 +5454,28 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5527,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5844,25 +6089,28 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5983,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>CIIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1180,8 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
@@ -1169,11 +1189,14 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1316,16 +1343,19 @@
         <v>0</v>
       </c>
       <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>100</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1381,16 +1411,19 @@
         <v>0</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1588,8 +1628,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
@@ -1609,8 +1649,11 @@
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1666,16 +1709,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1861,16 +1913,19 @@
         <v>0</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1926,16 +1981,19 @@
         <v>0</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2059,13 +2120,16 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>200</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,8 +2329,11 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2316,16 +2389,19 @@
         <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2465,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2446,86 +2525,92 @@
         <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2636,11 +2723,14 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2893,14 +2992,17 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3597,10 +3728,13 @@
         <v>0</v>
       </c>
       <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3644,13 +3778,13 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3662,10 +3796,13 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3682,7 +3819,7 @@
         <v>300</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
@@ -3700,7 +3837,7 @@
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -3709,7 +3846,7 @@
         <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3727,10 +3864,13 @@
         <v>0</v>
       </c>
       <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3747,7 +3887,7 @@
         <v>300</v>
       </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -3765,7 +3905,7 @@
         <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
@@ -3780,7 +3920,7 @@
         <v>100</v>
       </c>
       <c r="S60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T60" s="3">
         <v>0</v>
@@ -3792,10 +3932,13 @@
         <v>0</v>
       </c>
       <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4137,7 +4295,7 @@
         <v>300</v>
       </c>
       <c r="H66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I66" s="3">
         <v>200</v>
@@ -4155,7 +4313,7 @@
         <v>200</v>
       </c>
       <c r="N66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>100</v>
@@ -4170,7 +4328,7 @@
         <v>100</v>
       </c>
       <c r="S66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T66" s="3">
         <v>0</v>
@@ -4182,10 +4340,13 @@
         <v>0</v>
       </c>
       <c r="W66" s="3">
+        <v>0</v>
+      </c>
+      <c r="X66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,13 +4640,16 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E72" s="3">
         <v>-1400</v>
@@ -4490,7 +4664,7 @@
         <v>-1400</v>
       </c>
       <c r="I72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J72" s="3">
         <v>-1300</v>
@@ -4505,7 +4679,7 @@
         <v>-1300</v>
       </c>
       <c r="N72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="O72" s="3">
         <v>-1200</v>
@@ -4517,7 +4691,7 @@
         <v>-1200</v>
       </c>
       <c r="R72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="S72" s="3">
         <v>-1100</v>
@@ -4529,13 +4703,16 @@
         <v>-1100</v>
       </c>
       <c r="V72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="W72" s="3">
         <v>-1000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,8 +4912,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4747,7 +4933,7 @@
         <v>-300</v>
       </c>
       <c r="H76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I76" s="3">
         <v>-200</v>
@@ -4762,7 +4948,7 @@
         <v>-200</v>
       </c>
       <c r="M76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N76" s="3">
         <v>-100</v>
@@ -4777,7 +4963,7 @@
         <v>-100</v>
       </c>
       <c r="R76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S76" s="3">
         <v>0</v>
@@ -4792,10 +4978,13 @@
         <v>0</v>
       </c>
       <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5048,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4986,16 +5181,19 @@
         <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5457,25 +5674,28 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6092,25 +6338,28 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>100</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>CIIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +833,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1183,8 +1203,8 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
@@ -1192,11 +1212,14 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1312,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1346,16 +1373,19 @@
         <v>0</v>
       </c>
       <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>100</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
       <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,16 +1444,19 @@
         <v>0</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,8 +1550,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,8 +1621,11 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1631,8 +1671,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
@@ -1652,8 +1692,11 @@
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1712,16 +1755,19 @@
         <v>0</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1905,11 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1916,16 +1968,19 @@
         <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1984,16 +2039,19 @@
         <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2123,13 +2184,16 @@
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>200</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,8 +2402,11 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2392,16 +2465,19 @@
         <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2544,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2528,89 +2607,95 @@
         <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2747,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2726,11 +2813,14 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2887,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2995,14 +3094,17 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3171,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3242,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3668,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3613,8 +3739,11 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3731,10 +3862,13 @@
         <v>0</v>
       </c>
       <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3781,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
       </c>
       <c r="T58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3799,15 +3933,18 @@
         <v>0</v>
       </c>
       <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
@@ -3822,7 +3959,7 @@
         <v>300</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
@@ -3840,7 +3977,7 @@
         <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
@@ -3849,7 +3986,7 @@
         <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3867,15 +4004,18 @@
         <v>0</v>
       </c>
       <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
@@ -3890,7 +4030,7 @@
         <v>300</v>
       </c>
       <c r="I60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
@@ -3908,7 +4048,7 @@
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
@@ -3923,7 +4063,7 @@
         <v>100</v>
       </c>
       <c r="T60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U60" s="3">
         <v>0</v>
@@ -3935,10 +4075,13 @@
         <v>0</v>
       </c>
       <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,13 +4432,16 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E66" s="3">
         <v>300</v>
@@ -4298,7 +4456,7 @@
         <v>300</v>
       </c>
       <c r="I66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
@@ -4316,7 +4474,7 @@
         <v>200</v>
       </c>
       <c r="O66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
@@ -4331,7 +4489,7 @@
         <v>100</v>
       </c>
       <c r="T66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U66" s="3">
         <v>0</v>
@@ -4343,10 +4501,13 @@
         <v>0</v>
       </c>
       <c r="X66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +4814,11 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4652,7 +4826,7 @@
         <v>-1500</v>
       </c>
       <c r="E72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="F72" s="3">
         <v>-1400</v>
@@ -4667,7 +4841,7 @@
         <v>-1400</v>
       </c>
       <c r="J72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="K72" s="3">
         <v>-1300</v>
@@ -4682,7 +4856,7 @@
         <v>-1300</v>
       </c>
       <c r="O72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="P72" s="3">
         <v>-1200</v>
@@ -4694,7 +4868,7 @@
         <v>-1200</v>
       </c>
       <c r="S72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="T72" s="3">
         <v>-1100</v>
@@ -4706,13 +4880,16 @@
         <v>-1100</v>
       </c>
       <c r="W72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="X72" s="3">
         <v>-1000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,13 +5098,16 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E76" s="3">
         <v>-300</v>
@@ -4936,7 +5122,7 @@
         <v>-300</v>
       </c>
       <c r="I76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J76" s="3">
         <v>-200</v>
@@ -4951,7 +5137,7 @@
         <v>-200</v>
       </c>
       <c r="N76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O76" s="3">
         <v>-100</v>
@@ -4966,7 +5152,7 @@
         <v>-100</v>
       </c>
       <c r="S76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T76" s="3">
         <v>0</v>
@@ -4981,10 +5167,13 @@
         <v>0</v>
       </c>
       <c r="X76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5240,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5184,16 +5379,19 @@
         <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5840,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5677,25 +5894,28 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6341,25 +6587,28 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>100</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6675,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6744,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>CIIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,112 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -836,8 +840,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,8 +914,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +988,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1206,8 +1226,8 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
@@ -1215,11 +1235,14 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,13 +1339,14 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1376,16 +1403,19 @@
         <v>0</v>
       </c>
       <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
         <v>100</v>
       </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
       <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1447,16 +1477,19 @@
         <v>0</v>
       </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1515,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1553,8 +1587,11 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1624,8 +1661,11 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1674,8 +1714,8 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
@@ -1695,13 +1735,16 @@
       <c r="Y22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1758,16 +1801,19 @@
         <v>0</v>
       </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,13 +1957,16 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1971,21 +2023,24 @@
         <v>0</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2042,16 +2097,19 @@
         <v>0</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2187,13 +2248,16 @@
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>200</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2401,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2405,13 +2475,16 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2468,16 +2541,19 @@
         <v>0</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,13 +2623,16 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2610,92 +2689,98 @@
         <v>0</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,8 +2834,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2816,11 +2903,14 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +2980,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3054,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3128,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3097,14 +3196,17 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,8 +3276,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3350,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3316,8 +3424,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,8 +3794,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3742,8 +3868,11 @@
       <c r="Y54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3926,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3865,10 +3996,13 @@
         <v>0</v>
       </c>
       <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3918,13 +4052,13 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>100</v>
       </c>
       <c r="U58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -3936,18 +4070,21 @@
         <v>0</v>
       </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
@@ -3962,7 +4099,7 @@
         <v>300</v>
       </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
@@ -3980,7 +4117,7 @@
         <v>200</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
@@ -3989,7 +4126,7 @@
         <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -4007,18 +4144,21 @@
         <v>0</v>
       </c>
       <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
@@ -4033,7 +4173,7 @@
         <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -4051,7 +4191,7 @@
         <v>200</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
@@ -4066,7 +4206,7 @@
         <v>100</v>
       </c>
       <c r="U60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V60" s="3">
         <v>0</v>
@@ -4078,10 +4218,13 @@
         <v>0</v>
       </c>
       <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,8 +4294,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,16 +4590,19 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F66" s="3">
         <v>300</v>
@@ -4459,7 +4617,7 @@
         <v>300</v>
       </c>
       <c r="J66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
@@ -4477,7 +4635,7 @@
         <v>200</v>
       </c>
       <c r="P66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>100</v>
@@ -4492,7 +4650,7 @@
         <v>100</v>
       </c>
       <c r="U66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V66" s="3">
         <v>0</v>
@@ -4504,10 +4662,13 @@
         <v>0</v>
       </c>
       <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,19 +4988,22 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E72" s="3">
         <v>-1500</v>
       </c>
       <c r="F72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G72" s="3">
         <v>-1400</v>
@@ -4844,7 +5018,7 @@
         <v>-1400</v>
       </c>
       <c r="K72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="L72" s="3">
         <v>-1300</v>
@@ -4859,7 +5033,7 @@
         <v>-1300</v>
       </c>
       <c r="P72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="Q72" s="3">
         <v>-1200</v>
@@ -4871,7 +5045,7 @@
         <v>-1200</v>
       </c>
       <c r="T72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="U72" s="3">
         <v>-1100</v>
@@ -4883,13 +5057,16 @@
         <v>-1100</v>
       </c>
       <c r="X72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,16 +5284,19 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F76" s="3">
         <v>-300</v>
@@ -5125,7 +5311,7 @@
         <v>-300</v>
       </c>
       <c r="J76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K76" s="3">
         <v>-200</v>
@@ -5140,7 +5326,7 @@
         <v>-200</v>
       </c>
       <c r="O76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P76" s="3">
         <v>-100</v>
@@ -5155,7 +5341,7 @@
         <v>-100</v>
       </c>
       <c r="T76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U76" s="3">
         <v>0</v>
@@ -5170,10 +5356,13 @@
         <v>0</v>
       </c>
       <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,89 +5432,95 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -5382,16 +5577,19 @@
         <v>0</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,13 +6057,16 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -5897,25 +6114,28 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
       </c>
       <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6381,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6225,8 +6455,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,13 +6779,16 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -6590,25 +6836,28 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>100</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +6927,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6747,6 +6999,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>CIIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,115 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42674</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -843,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -917,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1229,8 +1248,8 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
@@ -1238,11 +1257,14 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,8 +1365,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1349,7 +1375,7 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1406,16 +1432,19 @@
         <v>0</v>
       </c>
       <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
         <v>100</v>
       </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
       <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1423,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1480,16 +1509,19 @@
         <v>0</v>
       </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1590,8 +1623,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1664,8 +1700,11 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1717,8 +1756,8 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
@@ -1738,8 +1777,11 @@
       <c r="Z22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1747,7 +1789,7 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1804,16 +1846,19 @@
         <v>0</v>
       </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1886,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,8 +2008,11 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1969,7 +2020,7 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -2026,16 +2077,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
       <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2043,7 +2097,7 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -2100,16 +2154,19 @@
         <v>0</v>
       </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2251,13 +2311,16 @@
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>200</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2478,8 +2547,11 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2487,7 +2559,7 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -2544,16 +2616,19 @@
         <v>0</v>
       </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,8 +2701,11 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2635,7 +2713,7 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -2692,95 +2770,101 @@
         <v>0</v>
       </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42674</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,8 +2920,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2906,11 +2992,14 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3057,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3199,14 +3297,17 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3279,8 +3380,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3427,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3501,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3723,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,8 +3919,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3871,8 +3996,11 @@
       <c r="Z54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,13 +4056,14 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -3999,10 +4129,13 @@
         <v>0</v>
       </c>
       <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4055,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>100</v>
       </c>
       <c r="V58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4073,10 +4206,13 @@
         <v>0</v>
       </c>
       <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4084,10 +4220,10 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
@@ -4102,7 +4238,7 @@
         <v>300</v>
       </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
@@ -4120,7 +4256,7 @@
         <v>200</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
@@ -4129,7 +4265,7 @@
         <v>100</v>
       </c>
       <c r="T59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -4147,21 +4283,24 @@
         <v>0</v>
       </c>
       <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
       <c r="F60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
@@ -4176,7 +4315,7 @@
         <v>300</v>
       </c>
       <c r="K60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
@@ -4194,7 +4333,7 @@
         <v>200</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R60" s="3">
         <v>100</v>
@@ -4209,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="V60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W60" s="3">
         <v>0</v>
@@ -4221,10 +4360,13 @@
         <v>0</v>
       </c>
       <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4297,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4371,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,19 +4747,22 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>200</v>
+      </c>
+      <c r="E66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
       <c r="F66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G66" s="3">
         <v>300</v>
@@ -4620,7 +4777,7 @@
         <v>300</v>
       </c>
       <c r="K66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
@@ -4638,7 +4795,7 @@
         <v>200</v>
       </c>
       <c r="Q66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R66" s="3">
         <v>100</v>
@@ -4653,7 +4810,7 @@
         <v>100</v>
       </c>
       <c r="V66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W66" s="3">
         <v>0</v>
@@ -4665,10 +4822,13 @@
         <v>0</v>
       </c>
       <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,8 +5161,11 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5000,13 +5173,13 @@
         <v>-1600</v>
       </c>
       <c r="E72" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="F72" s="3">
         <v>-1500</v>
       </c>
       <c r="G72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="H72" s="3">
         <v>-1400</v>
@@ -5021,7 +5194,7 @@
         <v>-1400</v>
       </c>
       <c r="L72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="M72" s="3">
         <v>-1300</v>
@@ -5036,7 +5209,7 @@
         <v>-1300</v>
       </c>
       <c r="Q72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="R72" s="3">
         <v>-1200</v>
@@ -5048,7 +5221,7 @@
         <v>-1200</v>
       </c>
       <c r="U72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="V72" s="3">
         <v>-1100</v>
@@ -5060,13 +5233,16 @@
         <v>-1100</v>
       </c>
       <c r="Y72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,19 +5469,22 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
       <c r="F76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
         <v>-300</v>
@@ -5314,7 +5499,7 @@
         <v>-300</v>
       </c>
       <c r="K76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L76" s="3">
         <v>-200</v>
@@ -5329,7 +5514,7 @@
         <v>-200</v>
       </c>
       <c r="P76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q76" s="3">
         <v>-100</v>
@@ -5344,7 +5529,7 @@
         <v>-100</v>
       </c>
       <c r="U76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V76" s="3">
         <v>0</v>
@@ -5359,10 +5544,13 @@
         <v>0</v>
       </c>
       <c r="Z76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,87 +5623,93 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42674</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5523,7 +5717,7 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -5580,16 +5774,19 @@
         <v>0</v>
       </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5690,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,17 +6273,20 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
@@ -6117,25 +6333,28 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
       <c r="X89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="3">
         <v>-100</v>
       </c>
       <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6236,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6458,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,17 +7024,20 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -6839,25 +7084,28 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
       <c r="X100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="3">
         <v>100</v>
       </c>
       <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7002,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>CIIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1251,8 +1271,8 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
@@ -1260,11 +1280,14 @@
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1378,7 +1405,7 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -1435,16 +1462,19 @@
         <v>0</v>
       </c>
       <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
         <v>100</v>
       </c>
-      <c r="Z17" s="3">
-        <v>0</v>
-      </c>
       <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1455,7 +1485,7 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1512,16 +1542,19 @@
         <v>0</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
       <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1759,8 +1799,8 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
@@ -1780,8 +1820,11 @@
       <c r="AA22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1792,7 +1835,7 @@
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1849,16 +1892,19 @@
         <v>0</v>
       </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,8 +2060,11 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2023,7 +2075,7 @@
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -2080,16 +2132,19 @@
         <v>0</v>
       </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2100,7 +2155,7 @@
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -2157,16 +2212,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2314,13 +2375,16 @@
         <v>0</v>
       </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>200</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2550,8 +2620,11 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2562,7 +2635,7 @@
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -2619,16 +2692,19 @@
         <v>0</v>
       </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,8 +2780,11 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2716,7 +2795,7 @@
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -2773,98 +2852,104 @@
         <v>0</v>
       </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2995,11 +3082,14 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3300,14 +3399,17 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4066,7 +4197,7 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -4132,10 +4263,13 @@
         <v>0</v>
       </c>
       <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4191,13 +4325,13 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>100</v>
       </c>
       <c r="W58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4209,24 +4343,27 @@
         <v>0</v>
       </c>
       <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
@@ -4241,7 +4378,7 @@
         <v>300</v>
       </c>
       <c r="L59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -4259,7 +4396,7 @@
         <v>200</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
@@ -4268,7 +4405,7 @@
         <v>100</v>
       </c>
       <c r="U59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4286,10 +4423,13 @@
         <v>0</v>
       </c>
       <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4297,13 +4437,13 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
+        <v>200</v>
+      </c>
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
@@ -4318,7 +4458,7 @@
         <v>300</v>
       </c>
       <c r="L60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
@@ -4336,7 +4476,7 @@
         <v>200</v>
       </c>
       <c r="R60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>100</v>
@@ -4351,7 +4491,7 @@
         <v>100</v>
       </c>
       <c r="W60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X60" s="3">
         <v>0</v>
@@ -4363,10 +4503,13 @@
         <v>0</v>
       </c>
       <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +4905,11 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4759,13 +4917,13 @@
         <v>200</v>
       </c>
       <c r="E66" s="3">
+        <v>200</v>
+      </c>
+      <c r="F66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
       <c r="G66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
@@ -4780,7 +4938,7 @@
         <v>300</v>
       </c>
       <c r="L66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
@@ -4798,7 +4956,7 @@
         <v>200</v>
       </c>
       <c r="R66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S66" s="3">
         <v>100</v>
@@ -4813,7 +4971,7 @@
         <v>100</v>
       </c>
       <c r="W66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X66" s="3">
         <v>0</v>
@@ -4825,10 +4983,13 @@
         <v>0</v>
       </c>
       <c r="AA66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,25 +5335,28 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="E72" s="3">
         <v>-1600</v>
       </c>
       <c r="F72" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G72" s="3">
         <v>-1500</v>
       </c>
       <c r="H72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="I72" s="3">
         <v>-1400</v>
@@ -5197,7 +5371,7 @@
         <v>-1400</v>
       </c>
       <c r="M72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="N72" s="3">
         <v>-1300</v>
@@ -5212,7 +5386,7 @@
         <v>-1300</v>
       </c>
       <c r="R72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="S72" s="3">
         <v>-1200</v>
@@ -5224,7 +5398,7 @@
         <v>-1200</v>
       </c>
       <c r="V72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="W72" s="3">
         <v>-1100</v>
@@ -5236,13 +5410,16 @@
         <v>-1100</v>
       </c>
       <c r="Z72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,8 +5655,11 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5481,13 +5667,13 @@
         <v>-200</v>
       </c>
       <c r="E76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
         <v>-300</v>
@@ -5502,7 +5688,7 @@
         <v>-300</v>
       </c>
       <c r="L76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M76" s="3">
         <v>-200</v>
@@ -5517,7 +5703,7 @@
         <v>-200</v>
       </c>
       <c r="Q76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R76" s="3">
         <v>-100</v>
@@ -5532,7 +5718,7 @@
         <v>-100</v>
       </c>
       <c r="V76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W76" s="3">
         <v>0</v>
@@ -5547,10 +5733,13 @@
         <v>0</v>
       </c>
       <c r="AA76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,90 +5815,96 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5720,7 +5915,7 @@
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -5777,16 +5972,19 @@
         <v>0</v>
       </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,20 +6490,23 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -6336,25 +6553,28 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
       <c r="Y89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z89" s="3">
         <v>-100</v>
       </c>
       <c r="AA89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,20 +7270,23 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -7087,25 +7333,28 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
       <c r="Y100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z100" s="3">
         <v>100</v>
       </c>
       <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>CIIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,127 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,8 +864,14 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +950,14 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1036,14 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1072,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1154,14 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1240,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1274,20 +1314,26 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1412,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1445,10 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1408,10 +1462,10 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -1465,16 +1519,22 @@
         <v>0</v>
       </c>
       <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
         <v>100</v>
       </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1488,10 +1548,10 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -1545,16 +1605,22 @@
         <v>0</v>
       </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1649,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1663,8 +1731,14 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1743,8 +1817,14 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1802,11 +1882,11 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>4</v>
@@ -1823,8 +1903,14 @@
       <c r="AB22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1838,10 +1924,10 @@
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -1895,16 +1981,22 @@
         <v>0</v>
       </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2075,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,8 +2161,14 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2078,10 +2182,10 @@
         <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -2135,16 +2239,22 @@
         <v>0</v>
       </c>
       <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2158,10 +2268,10 @@
         <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -2215,16 +2325,22 @@
         <v>0</v>
       </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2419,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2378,13 +2500,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
         <v>200</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AD29" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2591,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2677,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2623,8 +2763,14 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2638,10 +2784,10 @@
         <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -2695,16 +2841,22 @@
         <v>0</v>
       </c>
       <c r="Z33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,8 +2935,14 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2798,10 +2956,10 @@
         <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -2855,101 +3013,113 @@
         <v>0</v>
       </c>
       <c r="Z35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3148,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3180,10 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3085,11 +3259,17 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3348,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3434,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3520,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3402,14 +3600,20 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>4</v>
+      <c r="AA45" s="3">
+        <v>0</v>
       </c>
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,8 +3692,14 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3778,14 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3648,8 +3864,14 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3950,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4036,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4122,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4208,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,8 +4294,14 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4128,8 +4380,14 @@
       <c r="AB54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4416,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4448,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4200,10 +4462,10 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -4266,10 +4528,16 @@
         <v>0</v>
       </c>
       <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4328,17 +4596,17 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>100</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
       <c r="Z58" s="3">
         <v>0</v>
       </c>
@@ -4346,30 +4614,36 @@
         <v>0</v>
       </c>
       <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>200</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
-      </c>
       <c r="I59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
@@ -4381,10 +4655,10 @@
         <v>300</v>
       </c>
       <c r="M59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
@@ -4399,19 +4673,19 @@
         <v>200</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
       </c>
       <c r="V59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -4426,30 +4700,36 @@
         <v>0</v>
       </c>
       <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>300</v>
+      </c>
+      <c r="F60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>300</v>
-      </c>
       <c r="I60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
         <v>300</v>
@@ -4461,10 +4741,10 @@
         <v>300</v>
       </c>
       <c r="M60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
@@ -4479,10 +4759,10 @@
         <v>200</v>
       </c>
       <c r="S60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U60" s="3">
         <v>100</v>
@@ -4494,10 +4774,10 @@
         <v>100</v>
       </c>
       <c r="X60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z60" s="3">
         <v>0</v>
@@ -4506,10 +4786,16 @@
         <v>0</v>
       </c>
       <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4874,14 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4960,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5046,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5132,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,28 +5218,34 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>300</v>
+      </c>
+      <c r="F66" s="3">
         <v>200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <v>300</v>
-      </c>
       <c r="I66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3">
         <v>300</v>
@@ -4941,10 +5257,10 @@
         <v>300</v>
       </c>
       <c r="M66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O66" s="3">
         <v>200</v>
@@ -4959,10 +5275,10 @@
         <v>200</v>
       </c>
       <c r="S66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U66" s="3">
         <v>100</v>
@@ -4974,10 +5290,10 @@
         <v>100</v>
       </c>
       <c r="X66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z66" s="3">
         <v>0</v>
@@ -4986,10 +5302,16 @@
         <v>0</v>
       </c>
       <c r="AB66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5340,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5422,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5508,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5594,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,31 +5680,37 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1500</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-1400</v>
       </c>
       <c r="K72" s="3">
         <v>-1400</v>
@@ -5374,10 +5722,10 @@
         <v>-1400</v>
       </c>
       <c r="N72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="O72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="P72" s="3">
         <v>-1300</v>
@@ -5389,10 +5737,10 @@
         <v>-1300</v>
       </c>
       <c r="S72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="T72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="U72" s="3">
         <v>-1200</v>
@@ -5401,10 +5749,10 @@
         <v>-1200</v>
       </c>
       <c r="W72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="X72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="Y72" s="3">
         <v>-1100</v>
@@ -5413,13 +5761,19 @@
         <v>-1100</v>
       </c>
       <c r="AA72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5852,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5938,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,28 +6024,34 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-300</v>
-      </c>
       <c r="I76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3">
         <v>-300</v>
@@ -5691,10 +6063,10 @@
         <v>-300</v>
       </c>
       <c r="M76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O76" s="3">
         <v>-200</v>
@@ -5706,10 +6078,10 @@
         <v>-200</v>
       </c>
       <c r="R76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T76" s="3">
         <v>-100</v>
@@ -5721,10 +6093,10 @@
         <v>-100</v>
       </c>
       <c r="W76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y76" s="3">
         <v>0</v>
@@ -5736,10 +6108,16 @@
         <v>0</v>
       </c>
       <c r="AB76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,93 +6196,105 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5918,10 +6308,10 @@
         <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
@@ -5975,16 +6365,22 @@
         <v>0</v>
       </c>
       <c r="Z81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6409,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6491,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6577,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6663,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6749,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6835,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6921,14 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6511,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -6556,25 +6990,31 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7043,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +7125,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7211,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7297,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7383,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7419,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7501,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7587,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7673,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7759,14 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7291,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -7336,25 +7828,31 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>100</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7931,14 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7511,6 +8015,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>CIIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,135 +665,138 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42674</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -870,16 +873,19 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>200</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -956,16 +962,19 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -1042,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1160,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1320,8 +1339,8 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>4</v>
@@ -1329,11 +1348,14 @@
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1418,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,16 +1472,17 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -1468,7 +1494,7 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -1525,24 +1551,27 @@
         <v>0</v>
       </c>
       <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
         <v>100</v>
       </c>
-      <c r="AC17" s="3">
-        <v>0</v>
-      </c>
       <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1554,7 +1583,7 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -1611,16 +1640,19 @@
         <v>0</v>
       </c>
       <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-100</v>
       </c>
-      <c r="AC18" s="3">
-        <v>0</v>
-      </c>
       <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,13 +1683,14 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1737,8 +1770,11 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1823,8 +1859,11 @@
       <c r="AD21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1888,8 +1927,8 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>4</v>
@@ -1909,16 +1948,19 @@
       <c r="AD22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
@@ -1930,7 +1972,7 @@
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -1987,16 +2029,19 @@
         <v>0</v>
       </c>
       <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-100</v>
       </c>
-      <c r="AC23" s="3">
-        <v>0</v>
-      </c>
       <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2081,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,16 +2215,19 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
@@ -2188,7 +2239,7 @@
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -2245,24 +2296,27 @@
         <v>0</v>
       </c>
       <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-100</v>
       </c>
-      <c r="AC26" s="3">
-        <v>0</v>
-      </c>
       <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
@@ -2274,7 +2328,7 @@
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -2331,16 +2385,19 @@
         <v>0</v>
       </c>
       <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-100</v>
       </c>
-      <c r="AC27" s="3">
-        <v>0</v>
-      </c>
       <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2506,13 +2566,16 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
         <v>200</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,13 +2749,16 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2769,16 +2838,19 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
@@ -2790,7 +2862,7 @@
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
@@ -2847,16 +2919,19 @@
         <v>0</v>
       </c>
       <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,16 +3016,19 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
@@ -2962,7 +3040,7 @@
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -3019,107 +3097,113 @@
         <v>0</v>
       </c>
       <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42674</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,13 +3267,14 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -3265,11 +3351,14 @@
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-      <c r="AD41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3354,31 +3443,34 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -3440,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3526,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3606,19 +3704,22 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-      <c r="AC45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -3698,8 +3799,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3784,31 +3888,34 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -3870,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3956,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,31 +4244,34 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -4214,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,13 +4422,16 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -4386,8 +4511,11 @@
       <c r="AD54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4468,7 +4598,7 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -4534,10 +4664,13 @@
         <v>0</v>
       </c>
       <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4602,13 +4735,13 @@
         <v>0</v>
       </c>
       <c r="X58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="3">
         <v>100</v>
       </c>
       <c r="Z58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
@@ -4620,33 +4753,36 @@
         <v>0</v>
       </c>
       <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -4661,7 +4797,7 @@
         <v>300</v>
       </c>
       <c r="O59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
@@ -4679,7 +4815,7 @@
         <v>200</v>
       </c>
       <c r="U59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V59" s="3">
         <v>100</v>
@@ -4688,7 +4824,7 @@
         <v>100</v>
       </c>
       <c r="X59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
@@ -4706,33 +4842,36 @@
         <v>0</v>
       </c>
       <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
       </c>
       <c r="H60" s="3">
+        <v>200</v>
+      </c>
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
@@ -4747,7 +4886,7 @@
         <v>300</v>
       </c>
       <c r="O60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
@@ -4765,7 +4904,7 @@
         <v>200</v>
       </c>
       <c r="U60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V60" s="3">
         <v>100</v>
@@ -4780,7 +4919,7 @@
         <v>100</v>
       </c>
       <c r="Z60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA60" s="3">
         <v>0</v>
@@ -4792,10 +4931,13 @@
         <v>0</v>
       </c>
       <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4880,31 +5022,34 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -4966,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,31 +5378,34 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>200</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
       </c>
       <c r="H66" s="3">
+        <v>200</v>
+      </c>
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
       <c r="J66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
@@ -5263,7 +5420,7 @@
         <v>300</v>
       </c>
       <c r="O66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
@@ -5281,7 +5438,7 @@
         <v>200</v>
       </c>
       <c r="U66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V66" s="3">
         <v>100</v>
@@ -5296,7 +5453,7 @@
         <v>100</v>
       </c>
       <c r="Z66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA66" s="3">
         <v>0</v>
@@ -5308,10 +5465,13 @@
         <v>0</v>
       </c>
       <c r="AD66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,34 +5856,37 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-1600</v>
       </c>
       <c r="H72" s="3">
         <v>-1600</v>
       </c>
       <c r="I72" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J72" s="3">
         <v>-1500</v>
       </c>
       <c r="K72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="L72" s="3">
         <v>-1400</v>
@@ -5728,7 +5901,7 @@
         <v>-1400</v>
       </c>
       <c r="P72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="Q72" s="3">
         <v>-1300</v>
@@ -5743,7 +5916,7 @@
         <v>-1300</v>
       </c>
       <c r="U72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="V72" s="3">
         <v>-1200</v>
@@ -5755,7 +5928,7 @@
         <v>-1200</v>
       </c>
       <c r="Y72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="Z72" s="3">
         <v>-1100</v>
@@ -5767,13 +5940,16 @@
         <v>-1100</v>
       </c>
       <c r="AC72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AD72" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,31 +6212,34 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-300</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-200</v>
       </c>
       <c r="G76" s="3">
         <v>-200</v>
       </c>
       <c r="H76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>-300</v>
@@ -6069,7 +6254,7 @@
         <v>-300</v>
       </c>
       <c r="O76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P76" s="3">
         <v>-200</v>
@@ -6084,7 +6269,7 @@
         <v>-200</v>
       </c>
       <c r="T76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U76" s="3">
         <v>-100</v>
@@ -6099,7 +6284,7 @@
         <v>-100</v>
       </c>
       <c r="Y76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z76" s="3">
         <v>0</v>
@@ -6114,10 +6299,13 @@
         <v>0</v>
       </c>
       <c r="AD76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,107 +6390,113 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42674</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
@@ -6314,7 +6508,7 @@
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
@@ -6371,16 +6565,19 @@
         <v>0</v>
       </c>
       <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6497,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,29 +7140,32 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -6996,25 +7212,28 @@
         <v>0</v>
       </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
         <v>0</v>
       </c>
       <c r="AB89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC89" s="3">
         <v>-100</v>
       </c>
       <c r="AD89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7131,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7389,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,29 +8007,32 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -7834,25 +8079,28 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
       <c r="AB100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC100" s="3">
         <v>100</v>
       </c>
       <c r="AD100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7937,13 +8185,16 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -8021,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>CIIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42947</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42766</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42674</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,11 +800,11 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
@@ -876,20 +880,23 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
@@ -965,19 +972,22 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-200</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1342,8 +1362,8 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>4</v>
+      <c r="AB14" s="3">
+        <v>0</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>4</v>
@@ -1351,11 +1371,14 @@
       <c r="AD14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AE14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,19 +1499,20 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
@@ -1497,7 +1524,7 @@
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -1554,27 +1581,30 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3">
         <v>100</v>
       </c>
-      <c r="AD17" s="3">
-        <v>0</v>
-      </c>
       <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
@@ -1586,7 +1616,7 @@
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -1643,16 +1673,19 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
-      <c r="AD18" s="3">
-        <v>0</v>
-      </c>
       <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1773,8 +1807,11 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1862,8 +1899,11 @@
       <c r="AE21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1930,8 +1970,8 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
+      <c r="Y22" s="3">
+        <v>0</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>4</v>
@@ -1951,19 +1991,22 @@
       <c r="AE22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
@@ -1975,7 +2018,7 @@
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -2032,16 +2075,19 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-100</v>
       </c>
-      <c r="AD23" s="3">
-        <v>0</v>
-      </c>
       <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,19 +2267,22 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
@@ -2242,7 +2294,7 @@
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -2299,27 +2351,30 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-100</v>
       </c>
-      <c r="AD26" s="3">
-        <v>0</v>
-      </c>
       <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
@@ -2331,7 +2386,7 @@
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -2388,16 +2443,19 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-100</v>
       </c>
-      <c r="AD27" s="3">
-        <v>0</v>
-      </c>
       <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2569,13 +2630,16 @@
         <v>0</v>
       </c>
       <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
         <v>200</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2841,19 +2911,22 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
@@ -2865,7 +2938,7 @@
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -2922,16 +2995,19 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>200</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,19 +3095,22 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
@@ -3043,7 +3122,7 @@
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -3100,110 +3179,116 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>200</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42947</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42766</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42674</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,8 +3354,9 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3277,7 +3364,7 @@
         <v>300</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -3354,11 +3441,14 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-      <c r="AE41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,17 +3536,20 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3472,8 +3565,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3707,23 +3806,26 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-      <c r="AD45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
@@ -3802,8 +3904,11 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,16 +3996,19 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
+      <c r="E48" s="3">
+        <v>0</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
@@ -3917,8 +4025,8 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,16 +4364,19 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
@@ -4273,8 +4393,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,17 +4548,20 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
@@ -4514,8 +4640,11 @@
       <c r="AE54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,13 +4710,14 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -4601,7 +4732,7 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -4667,10 +4798,13 @@
         <v>0</v>
       </c>
       <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4738,13 +4872,13 @@
         <v>0</v>
       </c>
       <c r="Y58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="3">
         <v>100</v>
       </c>
       <c r="AA58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB58" s="3">
         <v>0</v>
@@ -4756,36 +4890,39 @@
         <v>0</v>
       </c>
       <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
@@ -4800,7 +4937,7 @@
         <v>300</v>
       </c>
       <c r="P59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
@@ -4818,7 +4955,7 @@
         <v>200</v>
       </c>
       <c r="V59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W59" s="3">
         <v>100</v>
@@ -4827,7 +4964,7 @@
         <v>100</v>
       </c>
       <c r="Y59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
@@ -4845,36 +4982,39 @@
         <v>0</v>
       </c>
       <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
       </c>
       <c r="I60" s="3">
+        <v>200</v>
+      </c>
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
       <c r="K60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
@@ -4889,7 +5029,7 @@
         <v>300</v>
       </c>
       <c r="P60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
@@ -4907,7 +5047,7 @@
         <v>200</v>
       </c>
       <c r="V60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W60" s="3">
         <v>100</v>
@@ -4922,7 +5062,7 @@
         <v>100</v>
       </c>
       <c r="AA60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB60" s="3">
         <v>0</v>
@@ -4934,10 +5074,13 @@
         <v>0</v>
       </c>
       <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5025,16 +5168,19 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
@@ -5051,8 +5197,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,34 +5536,37 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>600</v>
+      </c>
+      <c r="E66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>200</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
       </c>
       <c r="I66" s="3">
+        <v>200</v>
+      </c>
+      <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
       <c r="K66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L66" s="3">
         <v>300</v>
@@ -5423,7 +5581,7 @@
         <v>300</v>
       </c>
       <c r="P66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q66" s="3">
         <v>200</v>
@@ -5441,7 +5599,7 @@
         <v>200</v>
       </c>
       <c r="V66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W66" s="3">
         <v>100</v>
@@ -5456,7 +5614,7 @@
         <v>100</v>
       </c>
       <c r="AA66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB66" s="3">
         <v>0</v>
@@ -5468,10 +5626,13 @@
         <v>0</v>
       </c>
       <c r="AE66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,37 +6030,40 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1700</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-1600</v>
       </c>
       <c r="I72" s="3">
         <v>-1600</v>
       </c>
       <c r="J72" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="K72" s="3">
         <v>-1500</v>
       </c>
       <c r="L72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="M72" s="3">
         <v>-1400</v>
@@ -5904,7 +6078,7 @@
         <v>-1400</v>
       </c>
       <c r="Q72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="R72" s="3">
         <v>-1300</v>
@@ -5919,7 +6093,7 @@
         <v>-1300</v>
       </c>
       <c r="V72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="W72" s="3">
         <v>-1200</v>
@@ -5931,7 +6105,7 @@
         <v>-1200</v>
       </c>
       <c r="Z72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="AA72" s="3">
         <v>-1100</v>
@@ -5943,13 +6117,16 @@
         <v>-1100</v>
       </c>
       <c r="AD72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AE72" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,34 +6398,37 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-200</v>
       </c>
       <c r="H76" s="3">
         <v>-200</v>
       </c>
       <c r="I76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
@@ -6257,7 +6443,7 @@
         <v>-300</v>
       </c>
       <c r="P76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q76" s="3">
         <v>-200</v>
@@ -6272,7 +6458,7 @@
         <v>-200</v>
       </c>
       <c r="U76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V76" s="3">
         <v>-100</v>
@@ -6287,7 +6473,7 @@
         <v>-100</v>
       </c>
       <c r="Z76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA76" s="3">
         <v>0</v>
@@ -6302,10 +6488,13 @@
         <v>0</v>
       </c>
       <c r="AE76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,113 +6582,119 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42947</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42766</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42674</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
@@ -6511,7 +6706,7 @@
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -6568,16 +6763,19 @@
         <v>0</v>
       </c>
       <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>200</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,32 +7357,35 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -7215,25 +7432,28 @@
         <v>0</v>
       </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
         <v>0</v>
       </c>
       <c r="AC89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD89" s="3">
         <v>-100</v>
       </c>
       <c r="AE89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,32 +8253,35 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -8082,25 +8328,28 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
         <v>0</v>
       </c>
       <c r="AC100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD100" s="3">
         <v>100</v>
       </c>
       <c r="AE100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,17 +8437,20 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
